--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2554391.046858672</v>
+        <v>2551506.938558231</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9110708.708861638</v>
+        <v>9110708.708861636</v>
       </c>
     </row>
     <row r="11">
@@ -674,49 +674,49 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="V2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S3" t="n">
         <v>6.876045741711437</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,64 +817,64 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="R4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F4" t="n">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="X5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,73 +975,73 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,58 +1054,58 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>6.876045741711437</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.587217180758445</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.587217180758445</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="X8" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,55 +1230,55 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>14.14993519808116</v>
+      </c>
+      <c r="U9" t="n">
         <v>12.46326292246988</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="V9" t="n">
-        <v>14.14993519808116</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,70 +1291,70 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>14.14993519808116</v>
+      </c>
+      <c r="U10" t="n">
         <v>12.46326292246988</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="V10" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.5120075176649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>273.8348290426799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298073</v>
       </c>
     </row>
     <row r="17">
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>86.88943397770092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>68.98225678327375</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711243</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>107.3870054807226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>47.88058113793241</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>153.2646806878225</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>143.4157347120537</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>173.8476477102227</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183131</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>216.0569236206395</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>101.0545458193591</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3803,10 +3803,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>108.524925799985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F2" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G2" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
         <v>0.5500836593369149</v>
@@ -4334,16 +4334,16 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N2" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M2" t="n">
-        <v>20.97193951221988</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20.97193951221988</v>
-      </c>
       <c r="O2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4358,22 +4358,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U2" t="n">
         <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
         <v>0.5500836593369149</v>
@@ -4407,52 +4407,52 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.856703976333827</v>
       </c>
       <c r="K3" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L3" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M3" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N3" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O3" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
         <v>0.5500836593369149</v>
@@ -4501,37 +4501,37 @@
         <v>20.97193951221988</v>
       </c>
       <c r="O4" t="n">
-        <v>22.63671053917217</v>
+        <v>22.63671053917216</v>
       </c>
       <c r="P4" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V4" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W4" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E5" t="n">
         <v>14.44108515774386</v>
@@ -4568,22 +4568,22 @@
         <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
@@ -4604,13 +4604,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
         <v>0.5500836593369149</v>
@@ -4644,22 +4644,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K6" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="L6" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N6" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
         <v>0.5500836593369149</v>
@@ -4726,13 +4726,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L7" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L7" t="n">
-        <v>14.16465422792556</v>
-      </c>
       <c r="M7" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
         <v>20.69689768255142</v>
@@ -4750,7 +4750,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T7" t="n">
         <v>20.55868221764227</v>
@@ -4762,13 +4762,13 @@
         <v>13.6131814684388</v>
       </c>
       <c r="W7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.30687695587903</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="C8" t="n">
         <v>28.01401311943341</v>
@@ -4787,16 +4787,16 @@
         <v>28.01401311943341</v>
       </c>
       <c r="E8" t="n">
-        <v>22.37035940149558</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="F8" t="n">
-        <v>15.42485865229211</v>
+        <v>21.06851237022994</v>
       </c>
       <c r="G8" t="n">
-        <v>1.131994815846493</v>
+        <v>6.775648533784317</v>
       </c>
       <c r="H8" t="n">
-        <v>1.131994815846493</v>
+        <v>6.775648533784317</v>
       </c>
       <c r="I8" t="n">
         <v>1.131994815846493</v>
@@ -4805,19 +4805,19 @@
         <v>1.131994815846493</v>
       </c>
       <c r="K8" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="L8" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="M8" t="n">
-        <v>15.14043066194684</v>
+        <v>28.58286910012395</v>
       </c>
       <c r="N8" t="n">
-        <v>29.14886650804719</v>
+        <v>42.5913049462243</v>
       </c>
       <c r="O8" t="n">
-        <v>43.15730235414754</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="P8" t="n">
         <v>56.59974079232465</v>
@@ -4826,28 +4826,28 @@
         <v>56.59974079232465</v>
       </c>
       <c r="R8" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="S8" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="T8" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="U8" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="V8" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="W8" t="n">
-        <v>56.59974079232465</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="X8" t="n">
-        <v>42.30687695587903</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.30687695587903</v>
+        <v>28.01401311943341</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="C9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="D9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="E9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="F9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="G9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="H9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="I9" t="n">
         <v>1.131994815846493</v>
@@ -4887,34 +4887,34 @@
         <v>1.131994815846493</v>
       </c>
       <c r="L9" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="M9" t="n">
-        <v>15.14043066194683</v>
+        <v>29.14886650804718</v>
       </c>
       <c r="N9" t="n">
-        <v>29.14886650804718</v>
+        <v>43.15730235414753</v>
       </c>
       <c r="O9" t="n">
-        <v>42.5913049462243</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="P9" t="n">
-        <v>42.5913049462243</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="Q9" t="n">
         <v>56.59974079232465</v>
       </c>
       <c r="R9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="S9" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="T9" t="n">
-        <v>44.01058632518335</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="U9" t="n">
-        <v>29.71772248873773</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="V9" t="n">
         <v>15.42485865229211</v>
@@ -4926,7 +4926,7 @@
         <v>15.42485865229211</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="C10" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="E10" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="F10" t="n">
         <v>1.131994815846493</v>
@@ -4963,19 +4963,19 @@
         <v>1.131994815846493</v>
       </c>
       <c r="K10" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="L10" t="n">
-        <v>15.14043066194684</v>
+        <v>29.14886650804719</v>
       </c>
       <c r="M10" t="n">
         <v>29.14886650804719</v>
       </c>
       <c r="N10" t="n">
-        <v>43.15730235414754</v>
+        <v>29.14886650804719</v>
       </c>
       <c r="O10" t="n">
-        <v>56.59974079232465</v>
+        <v>42.5913049462243</v>
       </c>
       <c r="P10" t="n">
         <v>56.59974079232465</v>
@@ -4987,25 +4987,25 @@
         <v>56.59974079232465</v>
       </c>
       <c r="S10" t="n">
-        <v>42.30687695587903</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="T10" t="n">
         <v>42.30687695587903</v>
       </c>
       <c r="U10" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="V10" t="n">
-        <v>42.30687695587903</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="W10" t="n">
-        <v>42.30687695587903</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="X10" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5999,34 +5999,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591808</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
@@ -6230,19 +6230,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6251,13 +6251,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7826650753331</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>695.5020655703109</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>695.5020655703109</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>547.5889719879178</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,43 +7181,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1052.829365488567</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>883.8931825606599</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>733.7765431483241</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1455.270409462336</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y40" t="n">
-        <v>1234.477830318806</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.2677182139842</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>530.3315352860773</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>209.057009577846</v>
       </c>
       <c r="L2" t="n">
-        <v>220.4249025169917</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
-        <v>212.5009646122118</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>211.167778269899</v>
       </c>
       <c r="O2" t="n">
         <v>212.9750765626179</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>217.8634090628659</v>
       </c>
       <c r="Q2" t="n">
         <v>207.1020630664798</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>132.5535436227116</v>
+        <v>125.9054000402213</v>
       </c>
       <c r="L3" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>129.9234925718065</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6260055667107</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>131.5496644292654</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>126.1881458695709</v>
+        <v>126.465965899539</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>137.2421710355686</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>122.9982046141533</v>
+        <v>122.998204614153</v>
       </c>
       <c r="K5" t="n">
-        <v>129.6620317958545</v>
+        <v>122.7859860541426</v>
       </c>
       <c r="L5" t="n">
-        <v>115.052366252543</v>
+        <v>115.0523662525425</v>
       </c>
       <c r="M5" t="n">
-        <v>96.02859492201526</v>
+        <v>102.6268206337579</v>
       </c>
       <c r="N5" t="n">
-        <v>99.79807122049831</v>
+        <v>99.79807122049769</v>
       </c>
       <c r="O5" t="n">
-        <v>101.2135945572077</v>
+        <v>101.2135945572071</v>
       </c>
       <c r="P5" t="n">
-        <v>121.2329571124334</v>
+        <v>128.1090028541443</v>
       </c>
       <c r="Q5" t="n">
-        <v>146.298467629436</v>
+        <v>139.7002419176923</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>88.16948852718291</v>
+        <v>95.04553426889416</v>
       </c>
       <c r="K6" t="n">
-        <v>78.34965763529802</v>
+        <v>78.34965763529772</v>
       </c>
       <c r="L6" t="n">
-        <v>49.68820928662201</v>
+        <v>49.68820928662161</v>
       </c>
       <c r="M6" t="n">
-        <v>45.30745024457661</v>
+        <v>45.30745024457615</v>
       </c>
       <c r="N6" t="n">
-        <v>31.77042838197112</v>
+        <v>24.89438264025921</v>
       </c>
       <c r="O6" t="n">
-        <v>45.21773417785622</v>
+        <v>52.09377991956723</v>
       </c>
       <c r="P6" t="n">
-        <v>62.69561362598991</v>
+        <v>55.81956788427813</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.73733360454266</v>
+        <v>87.73733360454241</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>96.02407293084279</v>
+        <v>89.14802718913117</v>
       </c>
       <c r="L7" t="n">
-        <v>90.74695148540029</v>
+        <v>90.74695148540006</v>
       </c>
       <c r="M7" t="n">
-        <v>91.73714128592505</v>
+        <v>91.73714128592479</v>
       </c>
       <c r="N7" t="n">
-        <v>75.17760760216788</v>
+        <v>82.05365334387909</v>
       </c>
       <c r="O7" t="n">
-        <v>89.95696010294841</v>
+        <v>89.95696010294819</v>
       </c>
       <c r="P7" t="n">
-        <v>103.1042819523145</v>
+        <v>103.1042819523143</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8453,22 +8453,22 @@
         <v>83.20324886963371</v>
       </c>
       <c r="K8" t="n">
-        <v>73.44907330703683</v>
+        <v>87.59900850511799</v>
       </c>
       <c r="L8" t="n">
         <v>53.84556332150555</v>
       </c>
       <c r="M8" t="n">
-        <v>42.07416857096511</v>
+        <v>41.50245401750729</v>
       </c>
       <c r="N8" t="n">
         <v>37.86559935695391</v>
       </c>
       <c r="O8" t="n">
-        <v>50.01392522225434</v>
+        <v>50.01392522225433</v>
       </c>
       <c r="P8" t="n">
-        <v>79.03680220464724</v>
+        <v>65.4585815600239</v>
       </c>
       <c r="Q8" t="n">
         <v>97.81600865869628</v>
@@ -8535,7 +8535,7 @@
         <v>38.24118120917458</v>
       </c>
       <c r="L9" t="n">
-        <v>4.629541779345772</v>
+        <v>18.77947697742693</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>16.1919693400548</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.39726861816229</v>
+        <v>61.24733342008113</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>68.93477643328555</v>
+        <v>83.08471163136672</v>
       </c>
       <c r="L10" t="n">
         <v>72.15483915295135</v>
       </c>
       <c r="M10" t="n">
-        <v>72.0167785670165</v>
+        <v>57.86684336893533</v>
       </c>
       <c r="N10" t="n">
-        <v>62.70393951596478</v>
+        <v>48.55400431788362</v>
       </c>
       <c r="O10" t="n">
         <v>78.94397395947388</v>
       </c>
       <c r="P10" t="n">
-        <v>75.18621054113731</v>
+        <v>89.33614573921847</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.661746832800106</v>
+        <v>7.661746832800103</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.31997266427237</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>12.68816929391107</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
     </row>
     <row r="17">
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>217.5407415533172</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>98.55338150863676</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.00531331087754</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
     </row>
     <row r="35">
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>70.46607471595149</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>45.37941682721005</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25868,16 +25868,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>820720.3166597886</v>
+        <v>820720.3166597884</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656305.7696020392</v>
+        <v>656305.7696020391</v>
       </c>
       <c r="C2" t="n">
-        <v>656345.5158531143</v>
+        <v>656345.515853114</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>141378.9676610278</v>
+        <v>141378.9676610286</v>
       </c>
       <c r="D3" t="n">
-        <v>84885.90196742158</v>
+        <v>84885.90196742082</v>
       </c>
       <c r="E3" t="n">
-        <v>1214572.152861544</v>
+        <v>1214572.152861545</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044258</v>
+        <v>1799.076112044347</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>411492.6121935259</v>
       </c>
       <c r="C4" t="n">
-        <v>375913.3011113855</v>
+        <v>375913.3011113853</v>
       </c>
       <c r="D4" t="n">
         <v>353530.8414321567</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756597</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756572</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756621</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756593</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756628</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756566</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756606</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756597</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756593</v>
+        <v>9337.200356756612</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26470,7 +26470,7 @@
         <v>34809.12706477298</v>
       </c>
       <c r="C5" t="n">
-        <v>38193.76875786218</v>
+        <v>38193.7687578622</v>
       </c>
       <c r="D5" t="n">
         <v>40739.27482484731</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173952.7671613023</v>
+        <v>173951.1182666478</v>
       </c>
       <c r="C6" t="n">
-        <v>100859.4783228388</v>
+        <v>100857.9536352181</v>
       </c>
       <c r="D6" t="n">
-        <v>177677.3976670007</v>
+        <v>177677.3976670017</v>
       </c>
       <c r="E6" t="n">
-        <v>-679314.6032902034</v>
+        <v>-679349.3412156389</v>
       </c>
       <c r="F6" t="n">
-        <v>535257.5495713416</v>
+        <v>535222.8116459061</v>
       </c>
       <c r="G6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="H6" t="n">
-        <v>535257.5495713415</v>
+        <v>535222.8116459054</v>
       </c>
       <c r="I6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459058</v>
       </c>
       <c r="J6" t="n">
-        <v>533458.4734592971</v>
+        <v>533423.7355338614</v>
       </c>
       <c r="K6" t="n">
-        <v>535257.5495713415</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="L6" t="n">
-        <v>533416.5936149394</v>
+        <v>533381.8556895034</v>
       </c>
       <c r="M6" t="n">
-        <v>246540.1737948591</v>
+        <v>246505.4358694232</v>
       </c>
       <c r="N6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459055</v>
       </c>
       <c r="O6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="P6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459054</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>190.2800539800975</v>
+        <v>190.2800539800984</v>
       </c>
       <c r="D3" t="n">
         <v>286.759576367155</v>
@@ -26796,7 +26796,7 @@
         <v>14.14993519808116</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>155.2587932609722</v>
+        <v>155.2587932609731</v>
       </c>
       <c r="D3" t="n">
-        <v>96.4795223870575</v>
+        <v>96.47952238705662</v>
       </c>
       <c r="E3" t="n">
         <v>1081.215923974519</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711096</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.1569011525894</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27430,13 +27430,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4231246806692</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>245.2779686995118</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>320.8762127284235</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>131.2117673244399</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>89.42442281108013</v>
       </c>
       <c r="S3" t="n">
         <v>163.4079268796217</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>155.6092630085778</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>74.81741179380703</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>167.577752922068</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>216.0399661182352</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27594,7 +27594,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>375.8739489829624</v>
+        <v>375.0543243305503</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>331.6408097426067</v>
+        <v>331.6408097426066</v>
       </c>
       <c r="I5" t="n">
-        <v>180.9853497470181</v>
+        <v>180.985349747018</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>101.8181453147083</v>
+        <v>101.818145314708</v>
       </c>
       <c r="S5" t="n">
-        <v>191.5888867517872</v>
+        <v>191.5888867517871</v>
       </c>
       <c r="T5" t="n">
-        <v>219.747303086552</v>
+        <v>219.7473030865519</v>
       </c>
       <c r="U5" t="n">
         <v>251.2844573125866</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X5" t="n">
-        <v>362.8550549367576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>166.6520778990163</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>130.0581897959571</v>
+        <v>136.9342355376685</v>
       </c>
       <c r="H6" t="n">
-        <v>101.4065996375758</v>
+        <v>108.2826453792872</v>
       </c>
       <c r="I6" t="n">
-        <v>75.30513828779465</v>
+        <v>75.30513828779458</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>74.74647147205576</v>
+        <v>67.87042573034421</v>
       </c>
       <c r="S6" t="n">
-        <v>164.0809444188783</v>
+        <v>164.0809444188782</v>
       </c>
       <c r="T6" t="n">
-        <v>198.5150365287111</v>
+        <v>191.6389907869997</v>
       </c>
       <c r="U6" t="n">
         <v>225.9144556582418</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>145.131681180272</v>
       </c>
       <c r="J7" t="n">
-        <v>69.10003290678395</v>
+        <v>69.10003290678384</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.42975510069966</v>
+        <v>57.42975510069953</v>
       </c>
       <c r="R7" t="n">
-        <v>161.8651102790455</v>
+        <v>161.8651102790454</v>
       </c>
       <c r="S7" t="n">
-        <v>211.1607676480502</v>
+        <v>218.0368133897616</v>
       </c>
       <c r="T7" t="n">
-        <v>226.4794972090906</v>
+        <v>219.6034514673791</v>
       </c>
       <c r="U7" t="n">
         <v>279.4242675438962</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>212.5282322627954</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>351.1229565729264</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>376.3431528915033</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>327.668665386239</v>
       </c>
       <c r="I8" t="n">
-        <v>166.0324782421858</v>
+        <v>160.4452610614274</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.45439939251328</v>
+        <v>63.30446419443213</v>
       </c>
       <c r="S8" t="n">
         <v>182.7505867863798</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>335.0910335193319</v>
       </c>
       <c r="X8" t="n">
-        <v>355.5811654803879</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,7 +27950,7 @@
         <v>106.2784198293222</v>
       </c>
       <c r="I9" t="n">
-        <v>54.01025732803046</v>
+        <v>68.16019252611162</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>61.86190431251626</v>
+        <v>47.7119691144351</v>
       </c>
       <c r="S9" t="n">
         <v>160.2263144442633</v>
       </c>
       <c r="T9" t="n">
-        <v>185.2153143508289</v>
+        <v>183.5286420752177</v>
       </c>
       <c r="U9" t="n">
-        <v>211.7508676975587</v>
+        <v>213.43753997317</v>
       </c>
       <c r="V9" t="n">
-        <v>218.6506519513441</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>191.5327605792232</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>154.783558176158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>131.2711128248501</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.4738719256655</v>
@@ -28059,22 +28059,22 @@
         <v>154.0423608081211</v>
       </c>
       <c r="S10" t="n">
-        <v>200.8548905783036</v>
+        <v>215.0048257763848</v>
       </c>
       <c r="T10" t="n">
-        <v>225.7361303972559</v>
+        <v>211.5861951991747</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2908234965204</v>
+        <v>273.8275605740505</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>237.9877081257468</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.3730631385098</v>
       </c>
       <c r="X10" t="n">
-        <v>211.559720190956</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.029462643449993e-14</v>
       </c>
     </row>
     <row r="27">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31072,16 +31072,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31139,7 +31139,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31221,10 +31221,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.764944940623507</v>
+        <v>0.7649449406235105</v>
       </c>
       <c r="H5" t="n">
-        <v>7.833992373160494</v>
+        <v>7.833992373160529</v>
       </c>
       <c r="I5" t="n">
-        <v>29.49053982338778</v>
+        <v>29.49053982338792</v>
       </c>
       <c r="J5" t="n">
-        <v>64.92374565424444</v>
+        <v>64.92374565424474</v>
       </c>
       <c r="K5" t="n">
-        <v>97.30386499083752</v>
+        <v>97.30386499083795</v>
       </c>
       <c r="L5" t="n">
-        <v>120.7140487174442</v>
+        <v>120.7140487174447</v>
       </c>
       <c r="M5" t="n">
-        <v>134.3176383052575</v>
+        <v>134.3176383052581</v>
       </c>
       <c r="N5" t="n">
-        <v>136.491038117804</v>
+        <v>136.4910381178047</v>
       </c>
       <c r="O5" t="n">
-        <v>128.884616864479</v>
+        <v>128.8846168644796</v>
       </c>
       <c r="P5" t="n">
-        <v>110.0000386428362</v>
+        <v>110.0000386428367</v>
       </c>
       <c r="Q5" t="n">
-        <v>82.60544795675681</v>
+        <v>82.60544795675717</v>
       </c>
       <c r="R5" t="n">
-        <v>48.05097262644142</v>
+        <v>48.05097262644163</v>
       </c>
       <c r="S5" t="n">
-        <v>17.43118283445818</v>
+        <v>17.43118283445826</v>
       </c>
       <c r="T5" t="n">
-        <v>3.348546477579404</v>
+        <v>3.348546477579419</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06119559524988055</v>
+        <v>0.06119559524988083</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4092816255420966</v>
+        <v>0.4092816255420985</v>
       </c>
       <c r="H6" t="n">
-        <v>3.952798857209197</v>
+        <v>3.952798857209214</v>
       </c>
       <c r="I6" t="n">
-        <v>14.09149456362043</v>
+        <v>14.0914945636205</v>
       </c>
       <c r="J6" t="n">
-        <v>38.66813813948379</v>
+        <v>38.66813813948396</v>
       </c>
       <c r="K6" t="n">
-        <v>66.09000705080426</v>
+        <v>66.09000705080456</v>
       </c>
       <c r="L6" t="n">
-        <v>88.86617049325217</v>
+        <v>88.86617049325257</v>
       </c>
       <c r="M6" t="n">
-        <v>103.7026294191531</v>
+        <v>103.7026294191536</v>
       </c>
       <c r="N6" t="n">
-        <v>106.4473294430736</v>
+        <v>106.4473294430741</v>
       </c>
       <c r="O6" t="n">
-        <v>97.37851026658822</v>
+        <v>97.37851026658865</v>
       </c>
       <c r="P6" t="n">
-        <v>78.15483953005177</v>
+        <v>78.15483953005212</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.24444048147886</v>
+        <v>52.2444404814791</v>
       </c>
       <c r="R6" t="n">
-        <v>25.41136268058738</v>
+        <v>25.41136268058749</v>
       </c>
       <c r="S6" t="n">
-        <v>7.602226684959552</v>
+        <v>7.602226684959587</v>
       </c>
       <c r="T6" t="n">
-        <v>1.649692166110468</v>
+        <v>1.649692166110475</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02692642273303268</v>
+        <v>0.0269264227330328</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3431279661936185</v>
+        <v>0.34312796619362</v>
       </c>
       <c r="H7" t="n">
-        <v>3.050719553975992</v>
+        <v>3.050719553976005</v>
       </c>
       <c r="I7" t="n">
-        <v>10.31879374698627</v>
+        <v>10.31879374698632</v>
       </c>
       <c r="J7" t="n">
-        <v>24.25914720988882</v>
+        <v>24.25914720988893</v>
       </c>
       <c r="K7" t="n">
-        <v>39.86523098140403</v>
+        <v>39.86523098140421</v>
       </c>
       <c r="L7" t="n">
-        <v>51.01377053754943</v>
+        <v>51.01377053754966</v>
       </c>
       <c r="M7" t="n">
-        <v>53.7868683734233</v>
+        <v>53.78686837342354</v>
       </c>
       <c r="N7" t="n">
-        <v>52.5079368630653</v>
+        <v>52.50793686306554</v>
       </c>
       <c r="O7" t="n">
-        <v>48.49957834889438</v>
+        <v>48.4995783488946</v>
       </c>
       <c r="P7" t="n">
-        <v>41.49976783854453</v>
+        <v>41.49976783854471</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.73228815099473</v>
+        <v>28.73228815099485</v>
       </c>
       <c r="R7" t="n">
-        <v>15.42828109812397</v>
+        <v>15.42828109812404</v>
       </c>
       <c r="S7" t="n">
-        <v>5.979784647210604</v>
+        <v>5.97978464721063</v>
       </c>
       <c r="T7" t="n">
-        <v>1.466092219190915</v>
+        <v>1.466092219190921</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0187160708832883</v>
+        <v>0.01871607088328838</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>622.4211036182644</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>504.7812948344583</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>318.3985571819322</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>342.8454457931495</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>640.7275049411307</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34457,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O45" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34702,19 +34702,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>6.598225711743297</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
+        <v>0.2279021592211622</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,10 +34869,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>1.681586895911398</v>
+        <v>1.681586895911394</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N5" t="n">
         <v>6.876045741711437</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K6" t="n">
         <v>6.598225711743296</v>
@@ -35024,13 +35024,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,16 +35094,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743297</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14.14993519808116</v>
+        <v>13.57822064462334</v>
       </c>
       <c r="N8" t="n">
         <v>14.14993519808116</v>
@@ -35188,7 +35188,7 @@
         <v>14.14993519808116</v>
       </c>
       <c r="P8" t="n">
-        <v>13.57822064462334</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="M9" t="n">
         <v>14.14993519808115</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="L10" t="n">
         <v>14.14993519808116</v>
       </c>
       <c r="M10" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>13.57822064462334</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>90.01966967204032</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36367,10 +36367,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>483.8667238383903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>362.64726091244</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>176.2645232599139</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>205.0040068187905</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>498.1312604966863</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38105,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O45" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
